--- a/test_data/mercury.xlsx
+++ b/test_data/mercury.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27948" windowHeight="12300" firstSheet="3" activeTab="10"/>
+    <workbookView windowWidth="27945" windowHeight="14055" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="get_system_version" sheetId="4" r:id="rId1"/>
@@ -1898,7 +1898,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1906,7 +1906,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2360,10 +2360,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -2500,10 +2500,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2869,14 +2869,14 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
-    <col min="5" max="6" width="14.7777777777778" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="14.775" customWidth="1"/>
+    <col min="5" max="6" width="14.775" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1" spans="1:7">
@@ -2902,7 +2902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="1:7">
+    <row r="2" ht="27" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2978,18 +2978,18 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="15.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1083333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3083,14 +3083,14 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="7" width="16.3333333333333" style="1" customWidth="1"/>
@@ -3130,11 +3130,17 @@
       <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3144,11 +3150,12 @@
       <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="4"/>
       <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3183,9 +3190,9 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
     <col min="2" max="2" width="30.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.3333333333333" style="1" customWidth="1"/>
@@ -3236,7 +3243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3271,16 +3278,16 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.8888888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.8916666666667" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:7">
+    <row r="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3303,7 +3310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="43.2" spans="1:7">
+    <row r="2" ht="40.5" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3313,7 +3320,6 @@
       <c r="C2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1">
         <v>1</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:7">
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3359,19 +3365,19 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="25.7777777777778" style="1" customWidth="1"/>
-    <col min="6" max="6" width="25.2222222222222" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.775" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.225" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.4416666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="86.4" spans="1:7">
+    <row r="3" ht="81" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3449,18 +3455,18 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1083333333333" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3512,19 +3518,19 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1083333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3570,7 +3576,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3593,7 +3599,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3616,7 +3622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:7">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3654,19 +3660,19 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="23.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="17.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.1111111111111" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.1083333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3710,7 +3716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3746,15 +3752,15 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3794,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:6">
+    <row r="3" ht="27" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:6">
+    <row r="4" ht="27" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3834,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:6">
+    <row r="5" ht="27" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3854,7 +3860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:6">
+    <row r="6" ht="27" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3874,7 +3880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:6">
+    <row r="7" ht="27" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3894,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:6">
+    <row r="8" ht="27" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3914,7 +3920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:4">
+    <row r="9" ht="27" spans="1:4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3928,7 +3934,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:4">
+    <row r="10" ht="27" spans="1:4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3957,15 +3963,15 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4034,7 +4040,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4057,7 +4063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4080,7 +4086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4103,7 +4109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4126,7 +4132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4166,7 +4172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4198,15 +4204,15 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5583333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.2222222222222" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.225" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.775" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -4243,7 +4249,6 @@
       <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="2">
         <v>2</v>
       </c>
@@ -4315,15 +4320,15 @@
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4369,7 +4374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4392,7 +4397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4438,7 +4443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4461,7 +4466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4484,7 +4489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4507,7 +4512,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4524,7 +4529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4556,15 +4561,15 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +4621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4642,7 +4647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4668,7 +4673,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4694,7 +4699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4720,7 +4725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4746,7 +4751,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4772,7 +4777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4789,7 +4794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4806,7 +4811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:8">
+    <row r="11" ht="27" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4826,7 +4831,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:8">
+    <row r="12" ht="27" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -4867,15 +4872,15 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4927,7 +4932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4953,7 +4958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4979,7 +4984,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5005,7 +5010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5031,7 +5036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5057,7 +5062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5083,7 +5088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5100,7 +5105,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5117,7 +5122,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5137,7 +5142,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:8">
+    <row r="12" ht="27" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5178,18 +5183,18 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5248,13 +5253,13 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
@@ -5364,7 +5369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:8">
+    <row r="5" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5384,7 +5389,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="43.2" spans="1:8">
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5404,7 +5409,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:8">
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5424,7 +5429,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="43.2" spans="1:8">
+    <row r="8" ht="40.5" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5444,7 +5449,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="43.2" spans="1:8">
+    <row r="9" ht="27" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5464,7 +5469,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="43.2" spans="1:8">
+    <row r="10" ht="27" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5484,7 +5489,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:8">
+    <row r="11" ht="27" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5504,7 +5509,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="1:8">
+    <row r="12" ht="40.5" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5524,7 +5529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="43.2" spans="1:8">
+    <row r="13" ht="27" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5544,7 +5549,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" ht="43.2" spans="1:8">
+    <row r="14" ht="40.5" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="43.2" spans="1:8">
+    <row r="15" ht="27" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5584,7 +5589,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" ht="43.2" spans="1:8">
+    <row r="16" ht="40.5" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5604,7 +5609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="43.2" spans="1:8">
+    <row r="17" ht="27" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5624,7 +5629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" ht="43.2" spans="1:8">
+    <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5644,7 +5649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="43.2" spans="1:8">
+    <row r="19" ht="27" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5664,7 +5669,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="43.2" spans="1:8">
+    <row r="20" ht="27" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5684,7 +5689,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="43.2" spans="1:8">
+    <row r="21" ht="27" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5704,7 +5709,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="43.2" spans="1:8">
+    <row r="22" ht="40.5" spans="1:8">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="43.2" spans="1:8">
+    <row r="23" ht="27" spans="1:8">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5759,15 +5764,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5813,7 +5818,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5836,7 +5841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5882,7 +5887,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5905,7 +5910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5928,7 +5933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5951,7 +5956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5968,7 +5973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6000,13 +6005,13 @@
       <selection activeCell="K30" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.225" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -6418,7 +6423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6447,7 +6452,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6476,7 +6481,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="17" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6505,7 +6510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="18" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6534,7 +6539,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="19" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6563,7 +6568,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="20" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6592,7 +6597,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="21" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6621,7 +6626,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="22" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6644,7 +6649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="23" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6667,7 +6672,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="24" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6690,7 +6695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="25" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6713,7 +6718,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="26" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6736,7 +6741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="27" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6759,7 +6764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="28" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6782,7 +6787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="29" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="30" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6828,7 +6833,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="31" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6851,7 +6856,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="32" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6874,7 +6879,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="33" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6897,7 +6902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="34" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6920,7 +6925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="35" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6943,7 +6948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="36" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6966,7 +6971,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="37" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6989,7 +6994,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="38" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7027,18 +7032,18 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7084,7 +7089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="43.2" spans="1:7">
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7122,18 +7127,18 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.775" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7185,7 +7190,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7211,11 +7216,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:8">
+    <row r="4" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -7237,11 +7242,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="43.2" spans="1:8">
+    <row r="5" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>239</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -7263,7 +7268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:8">
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7279,13 +7284,11 @@
       <c r="E6" s="1">
         <v>50</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:8">
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:8">
+    <row r="8" ht="27" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7325,7 +7328,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:8">
+    <row r="9" ht="27" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7345,7 +7348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:8">
+    <row r="10" ht="27" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:8">
+    <row r="11" ht="27" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:8">
+    <row r="12" ht="27" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:8">
+    <row r="13" ht="27" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -7425,7 +7428,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:8">
+    <row r="14" ht="27" spans="1:8">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -7445,7 +7448,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:8">
+    <row r="15" ht="27" spans="1:8">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -7465,7 +7468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:8">
+    <row r="16" ht="27" spans="1:8">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -7485,7 +7488,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:8">
+    <row r="17" ht="27" spans="1:8">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -7505,7 +7508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:8">
+    <row r="18" ht="27" spans="1:8">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -7525,7 +7528,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:8">
+    <row r="19" ht="27" spans="1:8">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -7545,7 +7548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:8">
+    <row r="20" ht="27" spans="1:8">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -7565,7 +7568,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:8">
+    <row r="21" ht="27" spans="1:8">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -7600,18 +7603,18 @@
       <selection activeCell="K17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="3"/>
-    <col min="2" max="2" width="22.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="3"/>
-    <col min="5" max="5" width="17.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="8.89166666666667" style="1"/>
+    <col min="2" max="2" width="22.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" style="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7641,598 +7644,590 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>350</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
         <v>20</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>60</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>170</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>30</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>160</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>50</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>40</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>70</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>30</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>70</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:9">
-      <c r="A8" s="3">
+    <row r="8" ht="27" spans="1:9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>443</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>70</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:9">
-      <c r="A9" s="3">
+    <row r="9" ht="27" spans="1:9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
         <v>-443</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>70</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:9">
-      <c r="A10" s="3">
+    <row r="10" ht="27" spans="1:9">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
         <v>443</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>70</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:9">
-      <c r="A11" s="3">
+    <row r="11" ht="27" spans="1:9">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1">
         <v>-443</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>70</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="28.8" spans="1:9">
-      <c r="A12" s="3">
+    <row r="12" ht="27" spans="1:9">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>630</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>70</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:9">
-      <c r="A13" s="3">
+    <row r="13" ht="27" spans="1:9">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>-208</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>70</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:9">
-      <c r="A14" s="3">
+    <row r="14" ht="27" spans="1:9">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>208</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>70</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:9">
-      <c r="A15" s="3">
+    <row r="15" ht="27" spans="1:9">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>3</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>-630</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>70</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:9">
-      <c r="A16" s="3">
+    <row r="16" ht="27" spans="1:9">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>4</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>181</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>70</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:9">
-      <c r="A17" s="3">
+    <row r="17" ht="27" spans="1:9">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>4</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>-181</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>70</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" ht="28.8" spans="1:9">
-      <c r="A18" s="3">
+    <row r="18" ht="27" spans="1:9">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>5</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>181</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>70</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:9">
-      <c r="A19" s="3">
+    <row r="19" ht="27" spans="1:9">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>5</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>-181</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>70</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:9">
-      <c r="A20" s="3">
+    <row r="20" ht="27" spans="1:9">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>6</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>181</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>70</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="28.8" spans="1:9">
-      <c r="A21" s="3">
+    <row r="21" ht="27" spans="1:9">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>6</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>-181</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>70</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="28.8" spans="1:9">
-      <c r="A22" s="3">
+    <row r="22" ht="27" spans="1:9">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
         <v>350</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>101</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="28.8" spans="1:9">
-      <c r="A23" s="3">
+    <row r="23" ht="27" spans="1:9">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
         <v>350</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>-1</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" ht="28.8" spans="1:9">
-      <c r="A24" s="3">
+    <row r="24" ht="27" spans="1:9">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>7</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>350</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>70</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" ht="28.8" spans="1:9">
-      <c r="A25" s="3">
+    <row r="25" ht="27" spans="1:9">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>350</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>70</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -8251,17 +8246,17 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.225" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.775" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:7">
+    <row r="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8349,15 +8344,15 @@
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8407,7 +8402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8430,7 +8425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8447,7 +8442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:7">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8479,15 +8474,15 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8535,7 +8530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8571,15 +8566,15 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8629,7 +8624,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8652,7 +8647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -8669,7 +8664,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:7">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -8701,15 +8696,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8759,7 +8754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8782,7 +8777,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -8799,7 +8794,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -8831,15 +8826,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -8895,7 +8890,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="57.6" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -8921,7 +8916,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="57.6" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="54" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -8947,7 +8942,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="57.6" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -8973,7 +8968,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" ht="57.6" spans="1:8">
+    <row r="6" ht="54" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9022,7 +9017,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="8" ht="57.6" spans="1:8">
+    <row r="8" ht="54" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -9045,7 +9040,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" ht="57.6" spans="1:8">
+    <row r="9" ht="54" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -9117,15 +9112,15 @@
       <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9172,7 +9167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9208,15 +9203,15 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9266,7 +9261,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9338,15 +9333,15 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9402,7 +9397,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9428,7 +9423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:8">
+    <row r="4" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9448,7 +9443,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:8">
+    <row r="5" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9468,7 +9463,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:8">
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9488,7 +9483,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:8">
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9615,15 +9610,15 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9673,7 +9668,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9745,15 +9740,15 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.8888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.8916666666667" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -9809,7 +9804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -9835,7 +9830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -9855,7 +9850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -9875,7 +9870,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -9895,7 +9890,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -9955,7 +9950,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -9981,7 +9976,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -10022,13 +10017,13 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="16.5555555555556" customWidth="1"/>
-    <col min="5" max="6" width="14.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="16.5583333333333" customWidth="1"/>
+    <col min="5" max="6" width="14.1083333333333" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10131,16 +10126,16 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10195,16 +10190,16 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10259,18 +10254,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10328,18 +10323,18 @@
       <selection activeCell="F25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10397,18 +10392,18 @@
       <selection activeCell="G10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10466,18 +10461,18 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10535,18 +10530,18 @@
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.225" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10604,7 +10599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:9">
+    <row r="3" ht="27" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10633,7 +10628,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:9">
+    <row r="4" ht="27" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10662,7 +10657,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:9">
+    <row r="5" ht="27" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10681,8 +10676,6 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
         <v>39</v>
       </c>
@@ -10702,18 +10695,18 @@
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10771,18 +10764,18 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10828,7 +10821,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10851,7 +10844,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -10868,7 +10861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:7">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -10900,18 +10893,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -10963,7 +10956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10989,7 +10982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -11015,7 +11008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -11041,7 +11034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -11067,7 +11060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -11093,7 +11086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -11119,7 +11112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -11139,7 +11132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -11159,7 +11152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="43.2" spans="1:8">
+    <row r="11" ht="27" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -11179,7 +11172,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="1:8">
+    <row r="12" ht="27" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11199,7 +11192,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="43.2" spans="1:8">
+    <row r="13" ht="40.5" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11240,10 +11233,10 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.7777777777778" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.775" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.6666666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.3333333333333" style="2" customWidth="1"/>
@@ -11252,7 +11245,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:8">
+    <row r="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11382,7 +11375,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:8">
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -11408,7 +11401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:8">
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -11556,18 +11549,18 @@
       <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11626,18 +11619,18 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -11689,7 +11682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -11715,7 +11708,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -11741,7 +11734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -11767,7 +11760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -11793,7 +11786,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -11819,7 +11812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -11845,7 +11838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -11865,7 +11858,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -11885,7 +11878,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -11905,7 +11898,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -11925,7 +11918,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -11966,18 +11959,18 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12038,18 +12031,18 @@
       <selection activeCell="D16" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12107,18 +12100,18 @@
       <selection activeCell="E20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12164,7 +12157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -12181,7 +12174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -12198,7 +12191,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:7">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -12236,13 +12229,13 @@
       <selection activeCell="K8" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.225" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -12654,7 +12647,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -12683,7 +12676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -12706,7 +12699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="17" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A17" s="2">
         <v>22</v>
       </c>
@@ -12729,7 +12722,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="18" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A18" s="2">
         <v>23</v>
       </c>
@@ -12752,7 +12745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" ht="28.8" spans="1:9">
+    <row r="19" ht="27" spans="1:9">
       <c r="A19" s="2">
         <v>24</v>
       </c>
@@ -12772,7 +12765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" ht="28.8" spans="1:9">
+    <row r="20" ht="27" spans="1:9">
       <c r="A20" s="2">
         <v>25</v>
       </c>
@@ -12807,18 +12800,18 @@
       <selection activeCell="L11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="3"/>
-    <col min="5" max="5" width="17.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" style="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -12847,269 +12840,269 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A4" s="3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>60</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A5" s="3">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>60</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A6" s="3">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A7" s="3">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A8" s="3">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>70</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:9">
-      <c r="A9" s="3">
+    <row r="9" ht="27" spans="1:9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>70</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" ht="28.8" spans="1:9">
-      <c r="A10" s="3">
+    <row r="10" ht="27" spans="1:9">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="28.8" spans="1:9">
-      <c r="A11" s="3">
+    <row r="11" ht="27" spans="1:9">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>101</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13128,18 +13121,18 @@
       <selection activeCell="L11" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="3"/>
-    <col min="5" max="5" width="17.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" style="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -13168,443 +13161,443 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A4" s="3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>60</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A5" s="3">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>60</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A6" s="3">
+    <row r="6" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A8" s="3">
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>50</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A9" s="3">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>50</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A10" s="3">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>60</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A11" s="3">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>60</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A12" s="3">
+    <row r="12" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>30</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A13" s="3">
+    <row r="13" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>30</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A14" s="3">
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>70</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A15" s="3">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
         <v>70</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A16" s="3">
+    <row r="16" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A17" s="3">
+    <row r="17" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>101</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -13623,13 +13616,13 @@
       <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="26.6666666666667" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.225" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -14041,7 +14034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="15" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -14070,7 +14063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="57.6" spans="1:9">
+    <row r="16" s="1" customFormat="1" ht="54" spans="1:9">
       <c r="A16" s="2">
         <v>21</v>
       </c>
@@ -14093,7 +14086,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="57.6" spans="1:9">
+    <row r="17" s="1" customFormat="1" ht="54" spans="1:9">
       <c r="A17" s="2">
         <v>22</v>
       </c>
@@ -14116,7 +14109,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="57.6" spans="1:9">
+    <row r="18" s="1" customFormat="1" ht="54" spans="1:9">
       <c r="A18" s="2">
         <v>23</v>
       </c>
@@ -14139,7 +14132,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="57.6" spans="1:9">
+    <row r="19" s="1" customFormat="1" ht="54" spans="1:9">
       <c r="A19" s="2">
         <v>24</v>
       </c>
@@ -14159,7 +14152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="57.6" spans="1:9">
+    <row r="20" s="1" customFormat="1" ht="54" spans="1:9">
       <c r="A20" s="2">
         <v>25</v>
       </c>
@@ -14194,18 +14187,18 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="3"/>
-    <col min="5" max="5" width="17.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" style="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14234,443 +14227,443 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>-20</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A4" s="3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>60</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A5" s="3">
+    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
         <v>-20</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>60</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A6" s="3">
+    <row r="6" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>20</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>-20</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A8" s="3">
+    <row r="8" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>20</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>50</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A9" s="3">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>-20</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>50</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A10" s="3">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>20</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>60</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A11" s="3">
+    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>-20</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>60</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A12" s="3">
+    <row r="12" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>20</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>30</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A13" s="3">
+    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>-20</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>30</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A14" s="3">
+    <row r="14" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>20</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>70</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A15" s="3">
+    <row r="15" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>-20</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>70</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A16" s="3">
+    <row r="16" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
         <v>20</v>
       </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A17" s="3">
+    <row r="17" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
         <v>-20</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>101</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -14689,17 +14682,17 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.2222222222222" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.225" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="18.225" customWidth="1"/>
     <col min="5" max="6" width="9" style="5"/>
-    <col min="7" max="7" width="13.7777777777778" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.775" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.8" spans="1:7">
+    <row r="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14790,18 +14783,18 @@
       <selection activeCell="G20" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14860,19 +14853,19 @@
       <selection activeCell="E14" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.6666666666667" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14924,7 +14917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:8">
+    <row r="3" ht="27" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -14950,7 +14943,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:8">
+    <row r="4" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -14970,7 +14963,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:8">
+    <row r="5" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -14990,7 +14983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:8">
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -15010,7 +15003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:8">
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -15045,13 +15038,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="7" width="17.225" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.6666666666667" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
@@ -15115,7 +15108,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A3" s="2">
         <v>5</v>
       </c>
@@ -15138,7 +15131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -15176,18 +15169,18 @@
       <selection activeCell="F15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15233,7 +15226,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -15256,7 +15249,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -15279,7 +15272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:7">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -15302,7 +15295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:7">
+    <row r="6" ht="27" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -15325,7 +15318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:7">
+    <row r="7" ht="27" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -15342,7 +15335,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:7">
+    <row r="8" ht="27" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -15380,18 +15373,18 @@
       <selection activeCell="E17" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15437,7 +15430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -15460,7 +15453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="4" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -15477,7 +15470,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="5" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>7</v>
       </c>
@@ -15515,18 +15508,18 @@
       <selection activeCell="E25" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15585,18 +15578,18 @@
       <selection activeCell="L8" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7777777777778" style="1" customWidth="1"/>
-    <col min="5" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.775" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15648,7 +15641,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -15674,11 +15667,11 @@
         <v>206</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>508</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -15700,11 +15693,11 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>510</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -15726,7 +15719,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="6" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -15746,7 +15739,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -15766,7 +15759,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="8" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -15786,7 +15779,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -15806,7 +15799,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="10" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -15826,7 +15819,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -15846,7 +15839,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="12" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -15866,7 +15859,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -15886,7 +15879,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="14" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A14" s="2">
         <v>9</v>
       </c>
@@ -15906,7 +15899,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="15" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A15" s="2">
         <v>10</v>
       </c>
@@ -15926,7 +15919,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="16" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A16" s="2">
         <v>11</v>
       </c>
@@ -15946,7 +15939,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="17" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A17" s="2">
         <v>12</v>
       </c>
@@ -15966,7 +15959,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="18" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="18" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A18" s="2">
         <v>13</v>
       </c>
@@ -15986,7 +15979,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="19" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A19" s="2">
         <v>14</v>
       </c>
@@ -16006,7 +15999,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="20" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A20" s="2">
         <v>15</v>
       </c>
@@ -16026,7 +16019,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="21" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A21" s="2">
         <v>16</v>
       </c>
@@ -16046,7 +16039,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="22" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A22" s="2">
         <v>17</v>
       </c>
@@ -16066,7 +16059,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="23" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A23" s="2">
         <v>18</v>
       </c>
@@ -16086,7 +16079,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="24" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A24" s="2">
         <v>13</v>
       </c>
@@ -16106,7 +16099,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="25" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A25" s="2">
         <v>14</v>
       </c>
@@ -16126,7 +16119,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="26" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -16146,7 +16139,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="27" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="27" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A27" s="2">
         <v>16</v>
       </c>
@@ -16166,7 +16159,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="28" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A28" s="2">
         <v>17</v>
       </c>
@@ -16186,7 +16179,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="43.2" spans="1:8">
+    <row r="29" s="1" customFormat="1" ht="40.5" spans="1:8">
       <c r="A29" s="2">
         <v>18</v>
       </c>
@@ -16206,7 +16199,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="30" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -16226,7 +16219,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="31" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A31" s="2">
         <v>20</v>
       </c>
@@ -16261,20 +16254,20 @@
       <selection activeCell="B11" sqref="B11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.4444444444444" style="1" customWidth="1"/>
-    <col min="6" max="7" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.4416666666667" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.225" style="1" customWidth="1"/>
     <col min="8" max="8" width="18" style="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="25.5555555555556" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5583333333333" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16332,7 +16325,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -16361,7 +16354,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -16390,7 +16383,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -16419,7 +16412,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="6" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -16448,7 +16441,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -16477,7 +16470,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="8" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -16506,7 +16499,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -16535,7 +16528,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="10" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -16564,7 +16557,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -16593,7 +16586,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="12" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -16622,7 +16615,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" ht="43.2" spans="1:9">
+    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:9">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -16651,7 +16644,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="14" ht="28.8" spans="1:9">
+    <row r="14" ht="27" spans="1:9">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -16670,13 +16663,11 @@
       <c r="F14" s="1">
         <v>50</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
       <c r="I14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="28.8" spans="1:9">
+    <row r="15" ht="27" spans="1:9">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -16699,7 +16690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:9">
+    <row r="16" ht="27" spans="1:9">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -16722,7 +16713,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="28.8" spans="1:9">
+    <row r="17" ht="27" spans="1:9">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -16760,18 +16751,18 @@
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="3"/>
-    <col min="5" max="5" width="17.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" style="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16800,443 +16791,443 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A4" s="3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>60</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A5" s="3">
+    <row r="5" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>60</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A6" s="3">
+    <row r="6" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A7" s="3">
+    <row r="7" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A8" s="3">
+    <row r="8" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>50</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A9" s="3">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>50</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A10" s="3">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>5</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>60</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A11" s="3">
+    <row r="11" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>5</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <v>60</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A12" s="3">
+    <row r="12" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>6</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
         <v>30</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" ht="43.2" spans="1:9">
-      <c r="A13" s="3">
+    <row r="13" s="1" customFormat="1" ht="40.5" spans="1:9">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>6</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>30</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A14" s="3">
+    <row r="14" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>7</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
         <v>70</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A15" s="3">
+    <row r="15" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
         <v>70</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A16" s="3">
+    <row r="16" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A17" s="3">
+    <row r="17" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
         <v>101</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -17255,18 +17246,18 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1111111111111" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.1111111111111" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.8888888888889" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.88888888888889" style="3"/>
-    <col min="5" max="5" width="17.3333333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="1" width="10.1083333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1083333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.8916666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.89166666666667" style="1"/>
+    <col min="5" max="5" width="17.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17295,269 +17286,269 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" s="1" customFormat="1" spans="1:9">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
         <v>50</v>
       </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:9">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <v>50</v>
       </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A4" s="3">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:9">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D4" s="3">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>60</v>
       </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A5" s="3">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:9">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>60</v>
       </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A6" s="3">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:9">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
         <v>30</v>
       </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A7" s="3">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:9">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>3</v>
       </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>30</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A8" s="3">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
         <v>70</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A9" s="3">
+    <row r="9" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
         <v>70</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A10" s="3">
+    <row r="10" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" ht="28.8" spans="1:9">
-      <c r="A11" s="3">
+    <row r="11" s="1" customFormat="1" ht="27" spans="1:9">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
         <v>101</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
@@ -17572,21 +17563,21 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5583333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17629,7 +17620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -17658,18 +17649,18 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="5" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17712,7 +17703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:8">
+    <row r="3" ht="27" spans="1:8">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -17729,7 +17720,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:8">
+    <row r="4" ht="27" spans="1:8">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -17746,7 +17737,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:8">
+    <row r="5" ht="27" spans="1:8">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -17763,7 +17754,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="28.8" spans="1:8">
+    <row r="6" ht="27" spans="1:8">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -17780,7 +17771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:8">
+    <row r="7" ht="27" spans="1:8">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -17797,7 +17788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" ht="28.8" spans="1:8">
+    <row r="8" ht="27" spans="1:8">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -17829,18 +17820,18 @@
       <selection activeCell="E15" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.3333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.225" style="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17892,19 +17883,19 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="43" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.2222222222222" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.225" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17965,18 +17956,18 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.1083333333333" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="13.5555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5583333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18019,7 +18010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="3" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -18050,18 +18041,18 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.225" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="15.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1083333333333" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28.8" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="27" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18104,7 +18095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="28.8" spans="1:7">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -18124,7 +18115,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="43.2" spans="1:7">
+    <row r="4" ht="40.5" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -18144,7 +18135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="28.8" spans="1:7">
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
